--- a/extraction/raw extraction/smith2000/smith2000.xlsx
+++ b/extraction/raw extraction/smith2000/smith2000.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/raw extraction/smith2000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32979C9-EB6F-4D4E-A0F2-D55C1307AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5DB10-20A4-2E41-853A-EB93866AC06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29000" yWindow="-3920" windowWidth="27640" windowHeight="16140" xr2:uid="{AC9ED036-B8CA-604B-9820-E4A466732B68}"/>
+    <workbookView xWindow="32960" yWindow="-8320" windowWidth="25600" windowHeight="16140" activeTab="1" xr2:uid="{AC9ED036-B8CA-604B-9820-E4A466732B68}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="figure 3" sheetId="1" r:id="rId1"/>
+    <sheet name="figure 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t xml:space="preserve">temp </t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>figure 2</t>
+  </si>
+  <si>
+    <t>dark respiration</t>
+  </si>
+  <si>
+    <t>photosynthesis</t>
   </si>
 </sst>
 </file>
@@ -84,9 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D09107-1B91-7149-80D5-DA2287631682}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
@@ -510,4 +524,1750 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F92A6D-626A-9A42-9E0D-252E3CD549E4}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-75.840384038403798</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-71.087908790878998</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>17.5757575757575</v>
+      </c>
+      <c r="B4">
+        <v>-50.279627962796198</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>16.363636363636299</v>
+      </c>
+      <c r="B5">
+        <v>-44.340234023402303</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>17.878787878787801</v>
+      </c>
+      <c r="B6">
+        <v>-37.804080408040697</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>31.515151515151501</v>
+      </c>
+      <c r="B7">
+        <v>-38.978697869786899</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>31.515151515151501</v>
+      </c>
+      <c r="B8">
+        <v>-33.038103810381003</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>31.515151515151501</v>
+      </c>
+      <c r="B9">
+        <v>-27.691569156915602</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>46.6666666666666</v>
+      </c>
+      <c r="B10">
+        <v>-14.6072607260726</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>46.6666666666666</v>
+      </c>
+      <c r="B11">
+        <v>-11.6369636963696</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>47.5757575757575</v>
+      </c>
+      <c r="B12">
+        <v>-6.2895289528952896</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>69.090909090909093</v>
+      </c>
+      <c r="B13">
+        <v>3.8307830783078298</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>70.303030303030297</v>
+      </c>
+      <c r="B14">
+        <v>8.5844584458445894</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>75.454545454545396</v>
+      </c>
+      <c r="B15">
+        <v>12.747974797479699</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>106.06060606060601</v>
+      </c>
+      <c r="B16">
+        <v>32.382238223822398</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>112.121212121212</v>
+      </c>
+      <c r="B17">
+        <v>32.982298229823002</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>115.757575757575</v>
+      </c>
+      <c r="B18">
+        <v>31.797779777977802</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>180.90909090909</v>
+      </c>
+      <c r="B19">
+        <v>50.575157515751499</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>184.54545454545399</v>
+      </c>
+      <c r="B20">
+        <v>54.737173717371697</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>180.60606060606</v>
+      </c>
+      <c r="B21">
+        <v>59.188718871887197</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>257.27272727272702</v>
+      </c>
+      <c r="B22">
+        <v>55.997299729972902</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>256.969696969697</v>
+      </c>
+      <c r="B23">
+        <v>63.422742274227403</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>256.969696969697</v>
+      </c>
+      <c r="B24">
+        <v>71.739573957395706</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>-52.672667266726599</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>-46.138013801380097</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>-39.603360336033603</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>12.7272727272727</v>
+      </c>
+      <c r="B28">
+        <v>-35.432943294329398</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>12.7272727272727</v>
+      </c>
+      <c r="B29">
+        <v>-30.086408640864001</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>12.7272727272727</v>
+      </c>
+      <c r="B30">
+        <v>-25.036903690369002</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29.090909090909001</v>
+      </c>
+      <c r="B31">
+        <v>-11.060306030603</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>29.090909090909001</v>
+      </c>
+      <c r="B32">
+        <v>-5.1197119711970904</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>27.878787878787801</v>
+      </c>
+      <c r="B33">
+        <v>1.4137413741374301</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>47.272727272727202</v>
+      </c>
+      <c r="B34">
+        <v>15.0963096309631</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>73.939393939393895</v>
+      </c>
+      <c r="B35">
+        <v>37.696969696969703</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>116.363636363636</v>
+      </c>
+      <c r="B36">
+        <v>60.3132313231323</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>180.60606060606</v>
+      </c>
+      <c r="B37">
+        <v>79.089708970896993</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>244.24242424242399</v>
+      </c>
+      <c r="B38">
+        <v>88.954695469546905</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>244.24242424242399</v>
+      </c>
+      <c r="B39">
+        <v>85.390339033903302</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>-34.850885088508797</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>-31.286528652865201</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>-28.316231623162299</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>16.363636363636299</v>
+      </c>
+      <c r="B43">
+        <v>-8.6966696669666703</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>16.363636363636299</v>
+      </c>
+      <c r="B44">
+        <v>-5.7263726372636903</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>16.363636363636299</v>
+      </c>
+      <c r="B45">
+        <v>-1.5679567956795399</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>26.060606060605998</v>
+      </c>
+      <c r="B46">
+        <v>4.3822382238224096</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>26.6666666666666</v>
+      </c>
+      <c r="B47">
+        <v>7.35313531353136</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>26.6666666666666</v>
+      </c>
+      <c r="B48">
+        <v>10.3234323432343</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>42.424242424242401</v>
+      </c>
+      <c r="B49">
+        <v>24.002400240023999</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43.636363636363598</v>
+      </c>
+      <c r="B50">
+        <v>27.5679567956795</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>41.818181818181799</v>
+      </c>
+      <c r="B51">
+        <v>30.536453645364499</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>72.727272727272705</v>
+      </c>
+      <c r="B52">
+        <v>43.042304230422999</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>72.727272727272705</v>
+      </c>
+      <c r="B53">
+        <v>47.200720072007201</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>110.90909090909</v>
+      </c>
+      <c r="B54">
+        <v>62.684068406840602</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>107.272727272727</v>
+      </c>
+      <c r="B55">
+        <v>66.838883888388807</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>169.69696969696901</v>
+      </c>
+      <c r="B56">
+        <v>84.722472247224701</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>181.21212121212099</v>
+      </c>
+      <c r="B57">
+        <v>82.357635763576297</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>252.12121212121201</v>
+      </c>
+      <c r="B58">
+        <v>91.932793279327896</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>252.12121212121201</v>
+      </c>
+      <c r="B59">
+        <v>84.804080408040704</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>-25.939393939393899</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>-22.375037503750299</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>-18.8106810681067</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>13.9393939393939</v>
+      </c>
+      <c r="B63">
+        <v>-3.94659465946591</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="B64">
+        <v>0.80528052805280403</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>27.878787878787801</v>
+      </c>
+      <c r="B65">
+        <v>18.047404740474001</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>28.7878787878787</v>
+      </c>
+      <c r="B66">
+        <v>20.7215721572157</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>29.090909090909001</v>
+      </c>
+      <c r="B67">
+        <v>23.395139513951399</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44.848484848484802</v>
+      </c>
+      <c r="B68">
+        <v>32.915691569156898</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>49.696969696969703</v>
+      </c>
+      <c r="B69">
+        <v>33.8115811581158</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>46.060606060605998</v>
+      </c>
+      <c r="B70">
+        <v>37.075307530753001</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>74.545454545454504</v>
+      </c>
+      <c r="B71">
+        <v>51.360936093609297</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="B72">
+        <v>54.330033003300301</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>114.54545454545401</v>
+      </c>
+      <c r="B73">
+        <v>67.440144014401397</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>112.121212121212</v>
+      </c>
+      <c r="B74">
+        <v>70.4080408040804</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>113.333333333333</v>
+      </c>
+      <c r="B75">
+        <v>73.973597359735905</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>175.15151515151501</v>
+      </c>
+      <c r="B76">
+        <v>83.539753975397502</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>251.51515151515099</v>
+      </c>
+      <c r="B77">
+        <v>87.179717971797103</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>-8.7116711671166893</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>12.7272727272727</v>
+      </c>
+      <c r="B79">
+        <v>12.091809180918</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>31.515151515151501</v>
+      </c>
+      <c r="B80">
+        <v>28.150015001500101</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>31.515151515151501</v>
+      </c>
+      <c r="B81">
+        <v>29.932193219321899</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45.454545454545404</v>
+      </c>
+      <c r="B82">
+        <v>40.045004500449998</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>47.878787878787797</v>
+      </c>
+      <c r="B83">
+        <v>41.829582958295802</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>77.575757575757507</v>
+      </c>
+      <c r="B84">
+        <v>54.334233423342297</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>111.515151515151</v>
+      </c>
+      <c r="B85">
+        <v>66.843084308430804</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>175.15151515151501</v>
+      </c>
+      <c r="B86">
+        <v>80.569456945694498</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>242.42424242424201</v>
+      </c>
+      <c r="B87">
+        <v>79.447944794479398</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>241.21212121212099</v>
+      </c>
+      <c r="B88">
+        <v>84.793279327932794</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>-0.39483948394837398</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>12.7272727272727</v>
+      </c>
+      <c r="B90">
+        <v>16.2502250225022</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>27.878787878787801</v>
+      </c>
+      <c r="B91">
+        <v>30.522652265226501</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>30.303030303030202</v>
+      </c>
+      <c r="B92">
+        <v>32.307230723072301</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44.848484848484802</v>
+      </c>
+      <c r="B93">
+        <v>40.044404440443998</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>49.696969696969703</v>
+      </c>
+      <c r="B94">
+        <v>42.425442544254402</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>67.272727272727195</v>
+      </c>
+      <c r="B95">
+        <v>52.541854185418501</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>101.212121212121</v>
+      </c>
+      <c r="B96">
+        <v>64.456645664566395</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>103.636363636363</v>
+      </c>
+      <c r="B97">
+        <v>65.053105310530995</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>169.69696969696901</v>
+      </c>
+      <c r="B98">
+        <v>73.435343534353393</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>172.72727272727201</v>
+      </c>
+      <c r="B99">
+        <v>76.408640864086394</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>177.575757575757</v>
+      </c>
+      <c r="B100">
+        <v>76.413441344134398</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>268.48484848484799</v>
+      </c>
+      <c r="B101">
+        <v>80.661866186618596</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>268.48484848484799</v>
+      </c>
+      <c r="B102">
+        <v>84.226222622262199</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>